--- a/data/pca/factorExposure/factorExposure_2016-12-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01638142444607372</v>
+        <v>0.01443180539621369</v>
       </c>
       <c r="C2">
-        <v>0.04131277536876942</v>
+        <v>-0.04071158524686005</v>
       </c>
       <c r="D2">
-        <v>-0.04576592442666644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07534165599569802</v>
+      </c>
+      <c r="E2">
+        <v>-0.009862745856190036</v>
+      </c>
+      <c r="F2">
+        <v>-0.01255019292654212</v>
+      </c>
+      <c r="G2">
+        <v>0.09274152228024725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06578093189572927</v>
+        <v>0.03628575344875849</v>
       </c>
       <c r="C3">
-        <v>0.09917175424117365</v>
+        <v>-0.08930496690833653</v>
       </c>
       <c r="D3">
-        <v>-0.009663146249821668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09025926158365609</v>
+      </c>
+      <c r="E3">
+        <v>0.04730469351159073</v>
+      </c>
+      <c r="F3">
+        <v>-0.027213720535535</v>
+      </c>
+      <c r="G3">
+        <v>0.1081648240500276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06626287641683701</v>
+        <v>0.05627293851804801</v>
       </c>
       <c r="C4">
-        <v>0.06132256935277778</v>
+        <v>-0.05975959800902485</v>
       </c>
       <c r="D4">
-        <v>-0.02473811734080084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06272468593764338</v>
+      </c>
+      <c r="E4">
+        <v>0.006718531147888347</v>
+      </c>
+      <c r="F4">
+        <v>-0.00643017265297283</v>
+      </c>
+      <c r="G4">
+        <v>0.09308576566325709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02613281990956888</v>
+        <v>0.03456862049749689</v>
       </c>
       <c r="C6">
-        <v>0.0544717455164117</v>
+        <v>-0.03975438607957923</v>
       </c>
       <c r="D6">
-        <v>-0.01283341574079398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06091231138786966</v>
+      </c>
+      <c r="E6">
+        <v>0.0243314603369255</v>
+      </c>
+      <c r="F6">
+        <v>-0.01151860952333117</v>
+      </c>
+      <c r="G6">
+        <v>0.08716902095160431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01976923491152808</v>
+        <v>0.02064118817351501</v>
       </c>
       <c r="C7">
-        <v>0.04438079813200129</v>
+        <v>-0.03572142945667588</v>
       </c>
       <c r="D7">
-        <v>-0.01312572872275443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03606042170219969</v>
+      </c>
+      <c r="E7">
+        <v>0.0006141225035483614</v>
+      </c>
+      <c r="F7">
+        <v>0.002281029386840499</v>
+      </c>
+      <c r="G7">
+        <v>0.123304460422449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001663238654190694</v>
+        <v>0.004965095823993687</v>
       </c>
       <c r="C8">
-        <v>0.01024851597247132</v>
+        <v>-0.01981488325486221</v>
       </c>
       <c r="D8">
-        <v>-0.005686546974647383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03329027271806977</v>
+      </c>
+      <c r="E8">
+        <v>0.01604728951137947</v>
+      </c>
+      <c r="F8">
+        <v>-0.006135192074905619</v>
+      </c>
+      <c r="G8">
+        <v>0.06805518564922272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02915627090172753</v>
+        <v>0.03500623906495439</v>
       </c>
       <c r="C9">
-        <v>0.04194562877758026</v>
+        <v>-0.04520204812304635</v>
       </c>
       <c r="D9">
-        <v>-0.01813018840326095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04528372263244693</v>
+      </c>
+      <c r="E9">
+        <v>0.003400936955488963</v>
+      </c>
+      <c r="F9">
+        <v>-0.004104479076033753</v>
+      </c>
+      <c r="G9">
+        <v>0.09875704984496769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07136618522834276</v>
+        <v>0.09225877851643331</v>
       </c>
       <c r="C10">
-        <v>-0.1995864064716034</v>
+        <v>0.1953030764374739</v>
       </c>
       <c r="D10">
-        <v>0.004142696254507554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0122989931806116</v>
+      </c>
+      <c r="E10">
+        <v>0.005414764716586066</v>
+      </c>
+      <c r="F10">
+        <v>-0.02945766954090362</v>
+      </c>
+      <c r="G10">
+        <v>0.05032950756567359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04088354869002057</v>
+        <v>0.03639119959489881</v>
       </c>
       <c r="C11">
-        <v>0.05183041544398965</v>
+        <v>-0.05083430468509881</v>
       </c>
       <c r="D11">
-        <v>-0.001124653027684867</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0252777055264437</v>
+      </c>
+      <c r="E11">
+        <v>0.01214608359084964</v>
+      </c>
+      <c r="F11">
+        <v>0.01420630896095619</v>
+      </c>
+      <c r="G11">
+        <v>0.07548318082867404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03707137461619113</v>
+        <v>0.03723696584928695</v>
       </c>
       <c r="C12">
-        <v>0.04240462546349377</v>
+        <v>-0.04647358384801401</v>
       </c>
       <c r="D12">
-        <v>-0.003189350826148268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01933824198020586</v>
+      </c>
+      <c r="E12">
+        <v>0.004637044586765181</v>
+      </c>
+      <c r="F12">
+        <v>0.004903021881740553</v>
+      </c>
+      <c r="G12">
+        <v>0.07529360330631892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01034145841461334</v>
+        <v>0.01113446102821175</v>
       </c>
       <c r="C13">
-        <v>0.03545671050106194</v>
+        <v>-0.03588651971555871</v>
       </c>
       <c r="D13">
-        <v>-0.02046662179106381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06771278017950613</v>
+      </c>
+      <c r="E13">
+        <v>0.01563341232323881</v>
+      </c>
+      <c r="F13">
+        <v>-0.02044409542339071</v>
+      </c>
+      <c r="G13">
+        <v>0.1342926552468814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006642550812268552</v>
+        <v>0.00863431932794213</v>
       </c>
       <c r="C14">
-        <v>0.02826586001690667</v>
+        <v>-0.02715408776001043</v>
       </c>
       <c r="D14">
-        <v>-0.01112963500039925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02981834771320431</v>
+      </c>
+      <c r="E14">
+        <v>-0.001768371828326519</v>
+      </c>
+      <c r="F14">
+        <v>-0.005832352685663657</v>
+      </c>
+      <c r="G14">
+        <v>0.1134480589582055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03468227118568157</v>
+        <v>0.03510474975095101</v>
       </c>
       <c r="C16">
-        <v>0.03889495404718886</v>
+        <v>-0.04404278940810796</v>
       </c>
       <c r="D16">
-        <v>-0.001129440902822872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02255935324535635</v>
+      </c>
+      <c r="E16">
+        <v>0.009098574380337622</v>
+      </c>
+      <c r="F16">
+        <v>-0.002987505665432605</v>
+      </c>
+      <c r="G16">
+        <v>0.08149938634312191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03049401194291355</v>
+        <v>0.01780346289510902</v>
       </c>
       <c r="C19">
-        <v>0.05628141007361451</v>
+        <v>-0.04725313532691192</v>
       </c>
       <c r="D19">
-        <v>-0.02040686635388773</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0982737320180043</v>
+      </c>
+      <c r="E19">
+        <v>0.0376696750515818</v>
+      </c>
+      <c r="F19">
+        <v>-0.01951415445145449</v>
+      </c>
+      <c r="G19">
+        <v>0.1316951865333617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01343866825639134</v>
+        <v>0.01603747812806695</v>
       </c>
       <c r="C20">
-        <v>0.04345646029880038</v>
+        <v>-0.03678017466473206</v>
       </c>
       <c r="D20">
-        <v>-0.01348302470946779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04852881495302903</v>
+      </c>
+      <c r="E20">
+        <v>0.01266565227748403</v>
+      </c>
+      <c r="F20">
+        <v>-0.03002208586492742</v>
+      </c>
+      <c r="G20">
+        <v>0.1064489670898662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005788978761215945</v>
+        <v>0.006445865905874737</v>
       </c>
       <c r="C21">
-        <v>0.03591269170104538</v>
+        <v>-0.03541457075138395</v>
       </c>
       <c r="D21">
-        <v>-0.02220802112678347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07171643733109977</v>
+      </c>
+      <c r="E21">
+        <v>0.01497709416547543</v>
+      </c>
+      <c r="F21">
+        <v>-0.02042915031688178</v>
+      </c>
+      <c r="G21">
+        <v>0.1491424686212454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002519058526920558</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01275877424588411</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02048722790693945</v>
+      </c>
+      <c r="E22">
+        <v>0.01398597608535236</v>
+      </c>
+      <c r="F22">
+        <v>0.001280954111058603</v>
+      </c>
+      <c r="G22">
+        <v>0.01295614395039688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002533941050173129</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0127287529271151</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02031590307341086</v>
+      </c>
+      <c r="E23">
+        <v>0.01386616920637873</v>
+      </c>
+      <c r="F23">
+        <v>0.000963040437540503</v>
+      </c>
+      <c r="G23">
+        <v>0.01275588065899013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02853544945633647</v>
+        <v>0.03100814585379504</v>
       </c>
       <c r="C24">
-        <v>0.04623788500797206</v>
+        <v>-0.04950669032285154</v>
       </c>
       <c r="D24">
-        <v>-0.007614888938404825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02534831866969618</v>
+      </c>
+      <c r="E24">
+        <v>0.003390670710799088</v>
+      </c>
+      <c r="F24">
+        <v>0.006447798758394193</v>
+      </c>
+      <c r="G24">
+        <v>0.08094542078763106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04809659813940834</v>
+        <v>0.04315950847696279</v>
       </c>
       <c r="C25">
-        <v>0.05203172612503921</v>
+        <v>-0.05603793813562174</v>
       </c>
       <c r="D25">
-        <v>-0.007520687606948215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02096449842912538</v>
+      </c>
+      <c r="E25">
+        <v>-0.001580941615333309</v>
+      </c>
+      <c r="F25">
+        <v>0.006291150704135822</v>
+      </c>
+      <c r="G25">
+        <v>0.09018240844891598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.00416580287779946</v>
+        <v>0.01479179373278715</v>
       </c>
       <c r="C26">
-        <v>0.01183505348956812</v>
+        <v>-0.01031350120913638</v>
       </c>
       <c r="D26">
-        <v>-0.02444160441561473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03204840533287336</v>
+      </c>
+      <c r="E26">
+        <v>-0.01280698090095062</v>
+      </c>
+      <c r="F26">
+        <v>-0.005122364781314334</v>
+      </c>
+      <c r="G26">
+        <v>0.08194720994309736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0854355757802608</v>
+        <v>0.1234834318546345</v>
       </c>
       <c r="C28">
-        <v>-0.2287678337364899</v>
+        <v>0.2465087957817363</v>
       </c>
       <c r="D28">
-        <v>-0.001424652803811156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.002738525932849124</v>
+      </c>
+      <c r="E28">
+        <v>-0.009461686009179369</v>
+      </c>
+      <c r="F28">
+        <v>-0.03103861209346941</v>
+      </c>
+      <c r="G28">
+        <v>0.05337584834814347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01209360320370129</v>
+        <v>0.007964616867109454</v>
       </c>
       <c r="C29">
-        <v>0.02019924791824346</v>
+        <v>-0.02239680020059795</v>
       </c>
       <c r="D29">
-        <v>-0.007960223642222604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02088830678782252</v>
+      </c>
+      <c r="E29">
+        <v>-0.004435186525257843</v>
+      </c>
+      <c r="F29">
+        <v>-0.01010720465389967</v>
+      </c>
+      <c r="G29">
+        <v>0.1038252105605529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03968633312283153</v>
+        <v>0.03941744228186322</v>
       </c>
       <c r="C30">
-        <v>0.07344398684049247</v>
+        <v>-0.06404857967111829</v>
       </c>
       <c r="D30">
-        <v>-0.03282796388493749</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09288021051600343</v>
+      </c>
+      <c r="E30">
+        <v>0.02048050073644858</v>
+      </c>
+      <c r="F30">
+        <v>0.01918991327060931</v>
+      </c>
+      <c r="G30">
+        <v>0.1138191136383526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04534369920268722</v>
+        <v>0.05637203911014454</v>
       </c>
       <c r="C31">
-        <v>0.02453315694937265</v>
+        <v>-0.04086286968877297</v>
       </c>
       <c r="D31">
-        <v>-0.01201410425632638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01147745917842043</v>
+      </c>
+      <c r="E31">
+        <v>-0.01551489781135254</v>
+      </c>
+      <c r="F31">
+        <v>-0.03306001694550172</v>
+      </c>
+      <c r="G31">
+        <v>0.09442438013142489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.008105923346387061</v>
+        <v>0.001644292170343593</v>
       </c>
       <c r="C32">
-        <v>0.03607192497835274</v>
+        <v>-0.02405399331903539</v>
       </c>
       <c r="D32">
-        <v>0.007013341937805408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03515702653829535</v>
+      </c>
+      <c r="E32">
+        <v>0.03019167546195546</v>
+      </c>
+      <c r="F32">
+        <v>0.01135007921208466</v>
+      </c>
+      <c r="G32">
+        <v>0.07880173353272844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03108283006011942</v>
+        <v>0.02676508954591285</v>
       </c>
       <c r="C33">
-        <v>0.05422922348855017</v>
+        <v>-0.0462186528924618</v>
       </c>
       <c r="D33">
-        <v>-0.01960096380509764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0728576981981691</v>
+      </c>
+      <c r="E33">
+        <v>0.01937408607356889</v>
+      </c>
+      <c r="F33">
+        <v>-0.002224573865822936</v>
+      </c>
+      <c r="G33">
+        <v>0.1559482517085767</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05413364785645203</v>
+        <v>0.04239279791890843</v>
       </c>
       <c r="C34">
-        <v>0.04990798437788983</v>
+        <v>-0.06036015599298217</v>
       </c>
       <c r="D34">
-        <v>0.006424680673654607</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01690848520499198</v>
+      </c>
+      <c r="E34">
+        <v>0.01358607036899244</v>
+      </c>
+      <c r="F34">
+        <v>0.02057506324068904</v>
+      </c>
+      <c r="G34">
+        <v>0.07952447897704151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008219759695310571</v>
+        <v>0.01545860818443948</v>
       </c>
       <c r="C36">
-        <v>0.004981920746885719</v>
+        <v>-0.006118079763320749</v>
       </c>
       <c r="D36">
-        <v>-0.01458425497507785</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.029568431652993</v>
+      </c>
+      <c r="E36">
+        <v>-0.004447403799852577</v>
+      </c>
+      <c r="F36">
+        <v>-0.009428001549712578</v>
+      </c>
+      <c r="G36">
+        <v>0.09563633384157613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03592309718570621</v>
+        <v>0.03124473130270687</v>
       </c>
       <c r="C38">
-        <v>0.01967077231835153</v>
+        <v>-0.02264231251367401</v>
       </c>
       <c r="D38">
-        <v>0.001151027368809251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01940190938584924</v>
+      </c>
+      <c r="E38">
+        <v>0.007315414149994619</v>
+      </c>
+      <c r="F38">
+        <v>-0.01324140694779504</v>
+      </c>
+      <c r="G38">
+        <v>0.09067651972479469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03890975806398905</v>
+        <v>0.03709882769300318</v>
       </c>
       <c r="C39">
-        <v>0.08340769440274799</v>
+        <v>-0.07485470300950173</v>
       </c>
       <c r="D39">
-        <v>-0.009900869359295584</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04492989146748262</v>
+      </c>
+      <c r="E39">
+        <v>0.01477249670580057</v>
+      </c>
+      <c r="F39">
+        <v>0.01560252129825367</v>
+      </c>
+      <c r="G39">
+        <v>0.08969661368706676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01690913647638975</v>
+        <v>0.01654127522605603</v>
       </c>
       <c r="C40">
-        <v>0.02596409624240324</v>
+        <v>-0.03499101362529853</v>
       </c>
       <c r="D40">
-        <v>-0.01228384020122079</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0392385889419258</v>
+      </c>
+      <c r="E40">
+        <v>0.004791952400572573</v>
+      </c>
+      <c r="F40">
+        <v>-0.0298197526690278</v>
+      </c>
+      <c r="G40">
+        <v>0.1188574677784185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.010372051121187</v>
+        <v>0.01855853764708585</v>
       </c>
       <c r="C41">
-        <v>-0.001654163118879915</v>
+        <v>0.001970400526519729</v>
       </c>
       <c r="D41">
-        <v>-0.00914713780902203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02277902246132904</v>
+      </c>
+      <c r="E41">
+        <v>-0.002744363266024917</v>
+      </c>
+      <c r="F41">
+        <v>-0.01492340909407141</v>
+      </c>
+      <c r="G41">
+        <v>0.08827995060560996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01124415154905696</v>
+        <v>0.00533539985457057</v>
       </c>
       <c r="C42">
-        <v>0.04327883989388437</v>
+        <v>-0.02512095913050004</v>
       </c>
       <c r="D42">
-        <v>-0.104233930383276</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.05432357726462045</v>
+      </c>
+      <c r="E42">
+        <v>-0.08617002442367322</v>
+      </c>
+      <c r="F42">
+        <v>-0.02812179290752494</v>
+      </c>
+      <c r="G42">
+        <v>-0.04074592007125354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02972448520074027</v>
+        <v>0.03315545423808625</v>
       </c>
       <c r="C43">
-        <v>0.008343383968521204</v>
+        <v>-0.0111360734884106</v>
       </c>
       <c r="D43">
-        <v>-0.003079212885254903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03497534570995151</v>
+      </c>
+      <c r="E43">
+        <v>0.01172170939899834</v>
+      </c>
+      <c r="F43">
+        <v>-0.01267468183928632</v>
+      </c>
+      <c r="G43">
+        <v>0.1171875221284139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02189263709906038</v>
+        <v>0.01489825463331771</v>
       </c>
       <c r="C44">
-        <v>0.05397431054387264</v>
+        <v>-0.05164724598792244</v>
       </c>
       <c r="D44">
-        <v>-0.009359927739267651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04272226027474997</v>
+      </c>
+      <c r="E44">
+        <v>0.01130621224703179</v>
+      </c>
+      <c r="F44">
+        <v>-0.02035598602455313</v>
+      </c>
+      <c r="G44">
+        <v>0.117377586803397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0009506438889123759</v>
+        <v>0.01008483102900779</v>
       </c>
       <c r="C46">
-        <v>0.01199551808126893</v>
+        <v>-0.01710294534446119</v>
       </c>
       <c r="D46">
-        <v>-0.01521282550995542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01941666178870496</v>
+      </c>
+      <c r="E46">
+        <v>-0.01489764733388162</v>
+      </c>
+      <c r="F46">
+        <v>-0.01532743268694592</v>
+      </c>
+      <c r="G46">
+        <v>0.1112276642390041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07806072697748245</v>
+        <v>0.08557348672780088</v>
       </c>
       <c r="C47">
-        <v>0.06152382518272798</v>
+        <v>-0.07110234335357095</v>
       </c>
       <c r="D47">
-        <v>0.00194911764780071</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00451286115762022</v>
+      </c>
+      <c r="E47">
+        <v>-0.008662660069556039</v>
+      </c>
+      <c r="F47">
+        <v>-0.04203250855931167</v>
+      </c>
+      <c r="G47">
+        <v>0.0904928886299439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01256267651648284</v>
+        <v>0.01744655483690518</v>
       </c>
       <c r="C48">
-        <v>0.01014827966121064</v>
+        <v>-0.01235116144024983</v>
       </c>
       <c r="D48">
-        <v>-0.00183375462474241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01754854036569897</v>
+      </c>
+      <c r="E48">
+        <v>0.0008080961593317497</v>
+      </c>
+      <c r="F48">
+        <v>-0.02134533700338387</v>
+      </c>
+      <c r="G48">
+        <v>0.1093609949896616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08309018308263741</v>
+        <v>0.07883561620663931</v>
       </c>
       <c r="C50">
-        <v>0.05609210265916579</v>
+        <v>-0.06737076095931833</v>
       </c>
       <c r="D50">
-        <v>-0.004493134433028173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.006731155584289931</v>
+      </c>
+      <c r="E50">
+        <v>-0.0129049106713863</v>
+      </c>
+      <c r="F50">
+        <v>-0.04086532864426671</v>
+      </c>
+      <c r="G50">
+        <v>0.1002204780252178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01907312492938229</v>
+        <v>0.01204503931635823</v>
       </c>
       <c r="C51">
-        <v>0.03935095832480563</v>
+        <v>-0.03186319004639695</v>
       </c>
       <c r="D51">
-        <v>-0.009553209309564811</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04294240225030452</v>
+      </c>
+      <c r="E51">
+        <v>0.01161005180841598</v>
+      </c>
+      <c r="F51">
+        <v>0.008966297817200193</v>
+      </c>
+      <c r="G51">
+        <v>0.1042786577025664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1047103782300712</v>
+        <v>0.08740112535921576</v>
       </c>
       <c r="C53">
-        <v>0.06688134409939266</v>
+        <v>-0.08479752014068496</v>
       </c>
       <c r="D53">
-        <v>0.005726408896428913</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02111062290011913</v>
+      </c>
+      <c r="E53">
+        <v>-0.02152468536604511</v>
+      </c>
+      <c r="F53">
+        <v>-0.04590100016101762</v>
+      </c>
+      <c r="G53">
+        <v>0.09432571373288995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02815257643302455</v>
+        <v>0.03174267335694761</v>
       </c>
       <c r="C54">
-        <v>0.0003781641447064612</v>
+        <v>-0.01688388456129221</v>
       </c>
       <c r="D54">
-        <v>-0.0007813383881497068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02743621936073731</v>
+      </c>
+      <c r="E54">
+        <v>0.009406712245571238</v>
+      </c>
+      <c r="F54">
+        <v>-0.01310303545478829</v>
+      </c>
+      <c r="G54">
+        <v>0.1139964760425441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0802091754324723</v>
+        <v>0.08198536139086761</v>
       </c>
       <c r="C55">
-        <v>0.05862065671886921</v>
+        <v>-0.0686545504399013</v>
       </c>
       <c r="D55">
-        <v>-0.0001718365607026724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02369184849643453</v>
+      </c>
+      <c r="E55">
+        <v>-0.02607396046849016</v>
+      </c>
+      <c r="F55">
+        <v>-0.04619954595794908</v>
+      </c>
+      <c r="G55">
+        <v>0.06854163649944374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1585183573446322</v>
+        <v>0.143816203247556</v>
       </c>
       <c r="C56">
-        <v>0.08462154374365681</v>
+        <v>-0.1044276999108364</v>
       </c>
       <c r="D56">
-        <v>0.01938736580564533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03892026573191994</v>
+      </c>
+      <c r="E56">
+        <v>-0.01624229672967199</v>
+      </c>
+      <c r="F56">
+        <v>-0.05608594381022985</v>
+      </c>
+      <c r="G56">
+        <v>0.05983606455810193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.009158789100015963</v>
+        <v>0.003714170573185202</v>
       </c>
       <c r="C57">
-        <v>0.005347463388672319</v>
+        <v>-0.003030521634219577</v>
       </c>
       <c r="D57">
-        <v>-0.03044255741989987</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.03759638298661486</v>
+      </c>
+      <c r="E57">
+        <v>-0.007911532387136266</v>
+      </c>
+      <c r="F57">
+        <v>-0.002797141721520058</v>
+      </c>
+      <c r="G57">
+        <v>0.007109774109548291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0500067608405013</v>
+        <v>0.03754381590828148</v>
       </c>
       <c r="C58">
-        <v>0.06065992866066544</v>
+        <v>-0.03174785065783343</v>
       </c>
       <c r="D58">
-        <v>-0.02456606999281865</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5547002768507374</v>
+      </c>
+      <c r="E58">
+        <v>0.44421599296332</v>
+      </c>
+      <c r="F58">
+        <v>-0.60149424741166</v>
+      </c>
+      <c r="G58">
+        <v>-0.2962411863302378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1338660358028845</v>
+        <v>0.1468999849397828</v>
       </c>
       <c r="C59">
-        <v>-0.2267638788549064</v>
+        <v>0.2046382319334161</v>
       </c>
       <c r="D59">
-        <v>0.02212334581355981</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.009843281078505668</v>
+      </c>
+      <c r="E59">
+        <v>0.02334923460815398</v>
+      </c>
+      <c r="F59">
+        <v>-0.01249789973209648</v>
+      </c>
+      <c r="G59">
+        <v>0.04216975682022366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3124562747490937</v>
+        <v>0.2865959545765583</v>
       </c>
       <c r="C60">
-        <v>0.07143339447360435</v>
+        <v>-0.08991925071006414</v>
       </c>
       <c r="D60">
-        <v>0.01854167462282259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.09761287022252746</v>
+      </c>
+      <c r="E60">
+        <v>0.1059176849516618</v>
+      </c>
+      <c r="F60">
+        <v>0.3002285672695825</v>
+      </c>
+      <c r="G60">
+        <v>-0.1530101612164674</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03479304015293339</v>
+        <v>0.03918710506921434</v>
       </c>
       <c r="C61">
-        <v>0.06231769043147475</v>
+        <v>-0.06237123459657503</v>
       </c>
       <c r="D61">
-        <v>-0.003798308376395802</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03694977127815798</v>
+      </c>
+      <c r="E61">
+        <v>0.01643890158415996</v>
+      </c>
+      <c r="F61">
+        <v>0.006686515016956382</v>
+      </c>
+      <c r="G61">
+        <v>0.08944728154998778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01414985861118609</v>
+        <v>0.01533402920801027</v>
       </c>
       <c r="C63">
-        <v>0.02794884738700875</v>
+        <v>-0.02660060269825457</v>
       </c>
       <c r="D63">
-        <v>-0.00895211965393296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01985082657597746</v>
+      </c>
+      <c r="E63">
+        <v>-0.003901964454782841</v>
+      </c>
+      <c r="F63">
+        <v>-0.01188338407001991</v>
+      </c>
+      <c r="G63">
+        <v>0.0908713772355058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04645203847720139</v>
+        <v>0.05202107864051462</v>
       </c>
       <c r="C64">
-        <v>0.02873266311230567</v>
+        <v>-0.04734997416204795</v>
       </c>
       <c r="D64">
-        <v>-0.001233778891430398</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01075063514064028</v>
+      </c>
+      <c r="E64">
+        <v>-0.001696246688614573</v>
+      </c>
+      <c r="F64">
+        <v>0.003680838758638536</v>
+      </c>
+      <c r="G64">
+        <v>0.09435266074769116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08531354655984777</v>
+        <v>0.07136296898894491</v>
       </c>
       <c r="C65">
-        <v>0.06236722540712873</v>
+        <v>-0.04539428625997234</v>
       </c>
       <c r="D65">
-        <v>-0.009027836598973871</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.06186959093605286</v>
+      </c>
+      <c r="E65">
+        <v>0.02968883848037208</v>
+      </c>
+      <c r="F65">
+        <v>0.006603819940437293</v>
+      </c>
+      <c r="G65">
+        <v>0.04014440729925684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06139098096932617</v>
+        <v>0.04952851942892815</v>
       </c>
       <c r="C66">
-        <v>0.1213308231935714</v>
+        <v>-0.09929979090958803</v>
       </c>
       <c r="D66">
-        <v>-0.007122591527474325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.06196878804685209</v>
+      </c>
+      <c r="E66">
+        <v>0.03169474965070532</v>
+      </c>
+      <c r="F66">
+        <v>0.02034183992841167</v>
+      </c>
+      <c r="G66">
+        <v>0.09496771649045713</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06337745816457384</v>
+        <v>0.05389367751624079</v>
       </c>
       <c r="C67">
-        <v>0.02108016137397832</v>
+        <v>-0.02824019518602697</v>
       </c>
       <c r="D67">
-        <v>-2.128112325911374e-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.008735803799604763</v>
+      </c>
+      <c r="E67">
+        <v>-0.00164856584677088</v>
+      </c>
+      <c r="F67">
+        <v>-0.008371152475678165</v>
+      </c>
+      <c r="G67">
+        <v>0.0763532418197375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.09992418966974873</v>
+        <v>0.1500431370257519</v>
       </c>
       <c r="C68">
-        <v>-0.2880493044738119</v>
+        <v>0.2689150706681626</v>
       </c>
       <c r="D68">
-        <v>-0.01242208099183088</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.006113147053895751</v>
+      </c>
+      <c r="E68">
+        <v>-0.02174705606058157</v>
+      </c>
+      <c r="F68">
+        <v>-0.04400478339648824</v>
+      </c>
+      <c r="G68">
+        <v>0.0239884042205582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0858221212311906</v>
+        <v>0.08479883649961842</v>
       </c>
       <c r="C69">
-        <v>0.05557332852456816</v>
+        <v>-0.0740350701119836</v>
       </c>
       <c r="D69">
-        <v>0.003966083159853253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00804730112536218</v>
+      </c>
+      <c r="E69">
+        <v>-0.01210478779844621</v>
+      </c>
+      <c r="F69">
+        <v>-0.0165673875122478</v>
+      </c>
+      <c r="G69">
+        <v>0.1004178835524065</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1088578532187785</v>
+        <v>0.1379479830220476</v>
       </c>
       <c r="C71">
-        <v>-0.2394383993232273</v>
+        <v>0.2376050801518594</v>
       </c>
       <c r="D71">
-        <v>-0.009052856787504959</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02770949373496683</v>
+      </c>
+      <c r="E71">
+        <v>-0.002158411079191173</v>
+      </c>
+      <c r="F71">
+        <v>-0.04008144822674772</v>
+      </c>
+      <c r="G71">
+        <v>0.06458077949175715</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07485062553040285</v>
+        <v>0.0872652901675183</v>
       </c>
       <c r="C72">
-        <v>0.05817103191531332</v>
+        <v>-0.05824767193791901</v>
       </c>
       <c r="D72">
-        <v>-0.01178388569811318</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01661889077431091</v>
+      </c>
+      <c r="E72">
+        <v>-0.01194769912111416</v>
+      </c>
+      <c r="F72">
+        <v>0.02483634919406393</v>
+      </c>
+      <c r="G72">
+        <v>0.07869830314065547</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4404935743261134</v>
+        <v>0.3731872135559997</v>
       </c>
       <c r="C73">
-        <v>0.07792063392623653</v>
+        <v>-0.08015413280111296</v>
       </c>
       <c r="D73">
-        <v>0.01142742880942719</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2210139938254455</v>
+      </c>
+      <c r="E73">
+        <v>0.2019589868023201</v>
+      </c>
+      <c r="F73">
+        <v>0.5222894022971029</v>
+      </c>
+      <c r="G73">
+        <v>-0.3247829221915859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1230629348889327</v>
+        <v>0.1100599811928312</v>
       </c>
       <c r="C74">
-        <v>0.110240690706347</v>
+        <v>-0.102032543002353</v>
       </c>
       <c r="D74">
-        <v>0.004151195226662681</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009895089533161247</v>
+      </c>
+      <c r="E74">
+        <v>-0.01203431929413449</v>
+      </c>
+      <c r="F74">
+        <v>-0.05759708396603917</v>
+      </c>
+      <c r="G74">
+        <v>0.07385305798707437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2746294719456973</v>
+        <v>0.2550655369208732</v>
       </c>
       <c r="C75">
-        <v>0.1146616067988629</v>
+        <v>-0.1429184166373066</v>
       </c>
       <c r="D75">
-        <v>0.03929874339039347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.102387494959435</v>
+      </c>
+      <c r="E75">
+        <v>-0.03998124770636306</v>
+      </c>
+      <c r="F75">
+        <v>-0.1281436270597114</v>
+      </c>
+      <c r="G75">
+        <v>0.03108275744786504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.127985343816701</v>
+        <v>0.1242370544257822</v>
       </c>
       <c r="C76">
-        <v>0.09692812637131791</v>
+        <v>-0.1037389851230796</v>
       </c>
       <c r="D76">
-        <v>0.01369056655498196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03916018391409686</v>
+      </c>
+      <c r="E76">
+        <v>-0.02234994843509753</v>
+      </c>
+      <c r="F76">
+        <v>-0.07873714451664272</v>
+      </c>
+      <c r="G76">
+        <v>0.07032110026040747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.06315433894264895</v>
+        <v>0.06682549523828958</v>
       </c>
       <c r="C77">
-        <v>0.05942545099405521</v>
+        <v>-0.0615395220440891</v>
       </c>
       <c r="D77">
-        <v>-0.005400570496922258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.050263297321321</v>
+      </c>
+      <c r="E77">
+        <v>0.02561065376140422</v>
+      </c>
+      <c r="F77">
+        <v>-0.03417914825633636</v>
+      </c>
+      <c r="G77">
+        <v>0.1063266617799544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04975977401424188</v>
+        <v>0.04179376181973663</v>
       </c>
       <c r="C78">
-        <v>0.04986204724016177</v>
+        <v>-0.05511665472133648</v>
       </c>
       <c r="D78">
-        <v>-0.002102971377612715</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05097638537846969</v>
+      </c>
+      <c r="E78">
+        <v>0.0285567108181141</v>
+      </c>
+      <c r="F78">
+        <v>0.0243333723372149</v>
+      </c>
+      <c r="G78">
+        <v>0.09854726092225433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0004177772961251053</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001770810659090916</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.006542483724993183</v>
+      </c>
+      <c r="E79">
+        <v>0.003886165907585624</v>
+      </c>
+      <c r="F79">
+        <v>-0.002547050580531039</v>
+      </c>
+      <c r="G79">
+        <v>0.009208787826715626</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05749866529409536</v>
+        <v>0.04078381033968535</v>
       </c>
       <c r="C80">
-        <v>0.058657854034715</v>
+        <v>-0.04588011210700318</v>
       </c>
       <c r="D80">
-        <v>-0.02711308187983119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05085434520692343</v>
+      </c>
+      <c r="E80">
+        <v>-0.002028980792539211</v>
+      </c>
+      <c r="F80">
+        <v>-0.002269118306607963</v>
+      </c>
+      <c r="G80">
+        <v>0.03451006015100088</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1456888490504859</v>
+        <v>0.1407235501764591</v>
       </c>
       <c r="C81">
-        <v>0.06968531775386264</v>
+        <v>-0.09211898641157198</v>
       </c>
       <c r="D81">
-        <v>0.01134011850730268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05976809023118802</v>
+      </c>
+      <c r="E81">
+        <v>-0.04177255825866556</v>
+      </c>
+      <c r="F81">
+        <v>-0.1052032505660597</v>
+      </c>
+      <c r="G81">
+        <v>0.04139143645450275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05674599316556281</v>
+        <v>0.1737946881238226</v>
       </c>
       <c r="C82">
-        <v>0.03695872904908588</v>
+        <v>-0.126129769177258</v>
       </c>
       <c r="D82">
-        <v>0.004606210418461642</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1537956222525448</v>
+      </c>
+      <c r="E82">
+        <v>-0.108707292990902</v>
+      </c>
+      <c r="F82">
+        <v>-0.05140378758862575</v>
+      </c>
+      <c r="G82">
+        <v>0.02980022367715871</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02900232807209702</v>
+        <v>0.02797782658078166</v>
       </c>
       <c r="C83">
-        <v>0.01896491726627361</v>
+        <v>-0.03270630745374851</v>
       </c>
       <c r="D83">
-        <v>-0.007957518192685262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03314705768628024</v>
+      </c>
+      <c r="E83">
+        <v>0.01095273057345674</v>
+      </c>
+      <c r="F83">
+        <v>0.009080475499647765</v>
+      </c>
+      <c r="G83">
+        <v>0.0560976758969808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2552437649688806</v>
+        <v>0.2134302059081365</v>
       </c>
       <c r="C85">
-        <v>0.1145402872970612</v>
+        <v>-0.1259784530453941</v>
       </c>
       <c r="D85">
-        <v>0.02732555306987748</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0945091322348052</v>
+      </c>
+      <c r="E85">
+        <v>-0.05223495664400001</v>
+      </c>
+      <c r="F85">
+        <v>-0.05387842551171208</v>
+      </c>
+      <c r="G85">
+        <v>-0.01068621093846667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01074830510812694</v>
+        <v>0.01150595332995478</v>
       </c>
       <c r="C86">
-        <v>0.02086217817829316</v>
+        <v>-0.02362827114963881</v>
       </c>
       <c r="D86">
-        <v>-0.02643089729737031</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08074944571442251</v>
+      </c>
+      <c r="E86">
+        <v>0.01746587279268864</v>
+      </c>
+      <c r="F86">
+        <v>0.01124111675454324</v>
+      </c>
+      <c r="G86">
+        <v>0.1634014734485261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01424570954923623</v>
+        <v>0.02026220416955628</v>
       </c>
       <c r="C87">
-        <v>0.02223564621498362</v>
+        <v>-0.01547777871477862</v>
       </c>
       <c r="D87">
-        <v>-0.01448502281029755</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08795991813654012</v>
+      </c>
+      <c r="E87">
+        <v>0.04610426868424745</v>
+      </c>
+      <c r="F87">
+        <v>-0.03616029733653872</v>
+      </c>
+      <c r="G87">
+        <v>0.107958371157954</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09924298721073496</v>
+        <v>0.08947340827882617</v>
       </c>
       <c r="C88">
-        <v>0.05900384013665964</v>
+        <v>-0.06114325302608061</v>
       </c>
       <c r="D88">
-        <v>-0.03126944132855534</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03218417163708887</v>
+      </c>
+      <c r="E88">
+        <v>-0.02717265555555177</v>
+      </c>
+      <c r="F88">
+        <v>-0.01267739820420502</v>
+      </c>
+      <c r="G88">
+        <v>0.09277860096374664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1846105762388869</v>
+        <v>0.21242416035166</v>
       </c>
       <c r="C89">
-        <v>-0.3876786573702014</v>
+        <v>0.371332639414557</v>
       </c>
       <c r="D89">
-        <v>-0.0008259309398921188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.009879951600379567</v>
+      </c>
+      <c r="E89">
+        <v>-0.03068155919622237</v>
+      </c>
+      <c r="F89">
+        <v>-0.009784038192357718</v>
+      </c>
+      <c r="G89">
+        <v>0.08060914434833248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1637361513309288</v>
+        <v>0.1997868487361437</v>
       </c>
       <c r="C90">
-        <v>-0.3568223257042432</v>
+        <v>0.3239649494933938</v>
       </c>
       <c r="D90">
-        <v>0.008305678668296401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01137538472605478</v>
+      </c>
+      <c r="E90">
+        <v>-0.01390294981235617</v>
+      </c>
+      <c r="F90">
+        <v>-0.05714504796612823</v>
+      </c>
+      <c r="G90">
+        <v>0.05523720630863379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.212287297800727</v>
+        <v>0.1905459026588051</v>
       </c>
       <c r="C91">
-        <v>0.1046696212661142</v>
+        <v>-0.1312269104758415</v>
       </c>
       <c r="D91">
-        <v>0.02869043513725439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08013709017254038</v>
+      </c>
+      <c r="E91">
+        <v>-0.03799534198475686</v>
+      </c>
+      <c r="F91">
+        <v>-0.100113871239215</v>
+      </c>
+      <c r="G91">
+        <v>0.04995816948419748</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1710168534606294</v>
+        <v>0.1805270862639339</v>
       </c>
       <c r="C92">
-        <v>-0.2834053071749297</v>
+        <v>0.2756789131817687</v>
       </c>
       <c r="D92">
-        <v>0.03924470576716357</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01198370313263963</v>
+      </c>
+      <c r="E92">
+        <v>0.02505006330257429</v>
+      </c>
+      <c r="F92">
+        <v>-0.07324649290859113</v>
+      </c>
+      <c r="G92">
+        <v>0.08169804486996028</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1794930248063496</v>
+        <v>0.2214529682822664</v>
       </c>
       <c r="C93">
-        <v>-0.3354645434219904</v>
+        <v>0.3198186096209961</v>
       </c>
       <c r="D93">
-        <v>0.01186160746202181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0008765170519939029</v>
+      </c>
+      <c r="E93">
+        <v>0.0004229756216506574</v>
+      </c>
+      <c r="F93">
+        <v>-0.03815973253499572</v>
+      </c>
+      <c r="G93">
+        <v>0.0577478456293774</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2840709029386024</v>
+        <v>0.3388619664731585</v>
       </c>
       <c r="C94">
-        <v>0.1223751282523078</v>
+        <v>-0.1924965384009445</v>
       </c>
       <c r="D94">
-        <v>0.0333636088159644</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3295311100335912</v>
+      </c>
+      <c r="E94">
+        <v>-0.2194107123216882</v>
+      </c>
+      <c r="F94">
+        <v>-0.3490065783184092</v>
+      </c>
+      <c r="G94">
+        <v>-0.3961090776563467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.07174514303671566</v>
+        <v>0.08117509967223559</v>
       </c>
       <c r="C95">
-        <v>0.08487043076137278</v>
+        <v>-0.08547751190773112</v>
       </c>
       <c r="D95">
-        <v>-0.01399706867162063</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1167161970182225</v>
+      </c>
+      <c r="E95">
+        <v>0.07279199371200437</v>
+      </c>
+      <c r="F95">
+        <v>0.1546897874960655</v>
+      </c>
+      <c r="G95">
+        <v>0.03823481031881005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.208188200450703</v>
+        <v>0.1950183315731483</v>
       </c>
       <c r="C98">
-        <v>0.03338532390614457</v>
+        <v>-0.04296877386309852</v>
       </c>
       <c r="D98">
-        <v>0.03045834199768409</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.08696431592972166</v>
+      </c>
+      <c r="E98">
+        <v>0.1108294395875006</v>
+      </c>
+      <c r="F98">
+        <v>0.1876639324708017</v>
+      </c>
+      <c r="G98">
+        <v>-0.054245542547488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01193018144581613</v>
+        <v>0.007813074468477645</v>
       </c>
       <c r="C101">
-        <v>0.02051591629671147</v>
+        <v>-0.02230363958506413</v>
       </c>
       <c r="D101">
-        <v>-0.0077131646606135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02033625945268269</v>
+      </c>
+      <c r="E101">
+        <v>-0.004589921123187606</v>
+      </c>
+      <c r="F101">
+        <v>-0.01086148910094457</v>
+      </c>
+      <c r="G101">
+        <v>0.1034543090963396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1286433387745634</v>
+        <v>0.1228071501123526</v>
       </c>
       <c r="C102">
-        <v>0.06902253980849793</v>
+        <v>-0.09640676109002443</v>
       </c>
       <c r="D102">
-        <v>0.007299964422132596</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04247422106656701</v>
+      </c>
+      <c r="E102">
+        <v>-0.02860416088790517</v>
+      </c>
+      <c r="F102">
+        <v>-0.0157451988884826</v>
+      </c>
+      <c r="G102">
+        <v>0.01927714881260668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.04950972386485161</v>
+        <v>0.01500999253213259</v>
       </c>
       <c r="C104">
-        <v>-0.02664360082832177</v>
+        <v>0.009320146812400797</v>
       </c>
       <c r="D104">
-        <v>-0.9832070361643928</v>
+        <v>-0.569254220278433</v>
+      </c>
+      <c r="E104">
+        <v>-0.7972110706341679</v>
+      </c>
+      <c r="F104">
+        <v>0.01007242170761991</v>
+      </c>
+      <c r="G104">
+        <v>-0.1234354763212501</v>
       </c>
     </row>
   </sheetData>
